--- a/src/test/resources/testdata/batch17excel.xlsx
+++ b/src/test/resources/testdata/batch17excel.xlsx
@@ -10,7 +10,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -872,7 +871,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>

--- a/src/test/resources/testdata/batch17excel.xlsx
+++ b/src/test/resources/testdata/batch17excel.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>firstName</t>
   </si>
@@ -46,34 +46,22 @@
     <t>saif</t>
   </si>
   <si>
-    <t>nafi123</t>
-  </si>
-  <si>
     <t>Hum@nhrm123</t>
   </si>
   <si>
-    <t>muhayo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ms </t>
-  </si>
-  <si>
-    <t>aman</t>
-  </si>
-  <si>
-    <t>muha123</t>
-  </si>
-  <si>
     <t>raihana</t>
   </si>
   <si>
-    <t>adrian</t>
-  </si>
-  <si>
-    <t>rai123</t>
-  </si>
-  <si>
     <t>C:\Users\ahmad\OneDrive\Desktop\batch17image.jpg</t>
+  </si>
+  <si>
+    <t>Aman</t>
+  </si>
+  <si>
+    <t>Aman123123</t>
+  </si>
+  <si>
+    <t>Kabuy23232</t>
   </si>
 </sst>
 </file>
@@ -868,10 +856,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -879,7 +867,7 @@
     <col min="1" max="1" width="11.85546875" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" customWidth="1"/>
     <col min="4" max="4" width="49.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="16.5703125" customWidth="1"/>
   </cols>
@@ -918,62 +906,39 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -982,8 +947,6 @@
     <hyperlink ref="G2" r:id="rId2"/>
     <hyperlink ref="F3" r:id="rId3"/>
     <hyperlink ref="G3" r:id="rId4"/>
-    <hyperlink ref="F4" r:id="rId5"/>
-    <hyperlink ref="G4" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
